--- a/natmiOut/OldD2/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Alcam-Nrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.185806307347194</v>
+        <v>0.1975515</v>
       </c>
       <c r="H2">
-        <v>0.185806307347194</v>
+        <v>0.395103</v>
       </c>
       <c r="I2">
-        <v>0.003118320678277436</v>
+        <v>0.003060535523187668</v>
       </c>
       <c r="J2">
-        <v>0.003118320678277436</v>
+        <v>0.002052987970621056</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N2">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O2">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P2">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q2">
-        <v>19.6688531810619</v>
+        <v>21.269004133929</v>
       </c>
       <c r="R2">
-        <v>19.6688531810619</v>
+        <v>85.07601653571601</v>
       </c>
       <c r="S2">
-        <v>0.0008787238488142934</v>
+        <v>0.0008422053659902722</v>
       </c>
       <c r="T2">
-        <v>0.0008787238488142934</v>
+        <v>0.0004223266606967298</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.185806307347194</v>
+        <v>0.1975515</v>
       </c>
       <c r="H3">
-        <v>0.185806307347194</v>
+        <v>0.395103</v>
       </c>
       <c r="I3">
-        <v>0.003118320678277436</v>
+        <v>0.003060535523187668</v>
       </c>
       <c r="J3">
-        <v>0.003118320678277436</v>
+        <v>0.002052987970621056</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N3">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O3">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P3">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q3">
-        <v>4.76946601473484</v>
+        <v>5.415227852291001</v>
       </c>
       <c r="R3">
-        <v>4.76946601473484</v>
+        <v>32.49136711374601</v>
       </c>
       <c r="S3">
-        <v>0.0002130802184894085</v>
+        <v>0.0002144310061035734</v>
       </c>
       <c r="T3">
-        <v>0.0002130802184894085</v>
+        <v>0.00016129070369508</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.185806307347194</v>
+        <v>0.1975515</v>
       </c>
       <c r="H4">
-        <v>0.185806307347194</v>
+        <v>0.395103</v>
       </c>
       <c r="I4">
-        <v>0.003118320678277436</v>
+        <v>0.003060535523187668</v>
       </c>
       <c r="J4">
-        <v>0.003118320678277436</v>
+        <v>0.002052987970621056</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N4">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O4">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P4">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q4">
-        <v>14.08301931508946</v>
+        <v>16.2592642347405</v>
       </c>
       <c r="R4">
-        <v>14.08301931508946</v>
+        <v>97.55558540844301</v>
       </c>
       <c r="S4">
-        <v>0.0006291716564032702</v>
+        <v>0.0006438307830176041</v>
       </c>
       <c r="T4">
-        <v>0.0006291716564032702</v>
+        <v>0.0004842766069161916</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.185806307347194</v>
+        <v>0.1975515</v>
       </c>
       <c r="H5">
-        <v>0.185806307347194</v>
+        <v>0.395103</v>
       </c>
       <c r="I5">
-        <v>0.003118320678277436</v>
+        <v>0.003060535523187668</v>
       </c>
       <c r="J5">
-        <v>0.003118320678277436</v>
+        <v>0.002052987970621056</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N5">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O5">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P5">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q5">
-        <v>13.00630601681708</v>
+        <v>14.0799752575935</v>
       </c>
       <c r="R5">
-        <v>13.00630601681708</v>
+        <v>84.479851545561</v>
       </c>
       <c r="S5">
-        <v>0.0005810685135907333</v>
+        <v>0.0005575357755485543</v>
       </c>
       <c r="T5">
-        <v>0.0005810685135907333</v>
+        <v>0.0004193672324140156</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.185806307347194</v>
+        <v>0.1975515</v>
       </c>
       <c r="H6">
-        <v>0.185806307347194</v>
+        <v>0.395103</v>
       </c>
       <c r="I6">
-        <v>0.003118320678277436</v>
+        <v>0.003060535523187668</v>
       </c>
       <c r="J6">
-        <v>0.003118320678277436</v>
+        <v>0.002052987970621056</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N6">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O6">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P6">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q6">
-        <v>14.73408940705572</v>
+        <v>16.447476619279</v>
       </c>
       <c r="R6">
-        <v>14.73408940705572</v>
+        <v>98.68485971567401</v>
       </c>
       <c r="S6">
-        <v>0.000658258803060673</v>
+        <v>0.0006512835757861796</v>
       </c>
       <c r="T6">
-        <v>0.000658258803060673</v>
+        <v>0.0004898824482167568</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.185806307347194</v>
+        <v>0.1975515</v>
       </c>
       <c r="H7">
-        <v>0.185806307347194</v>
+        <v>0.395103</v>
       </c>
       <c r="I7">
-        <v>0.003118320678277436</v>
+        <v>0.003060535523187668</v>
       </c>
       <c r="J7">
-        <v>0.003118320678277436</v>
+        <v>0.002052987970621056</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N7">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O7">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P7">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q7">
-        <v>3.536976633150417</v>
+        <v>3.819633657338251</v>
       </c>
       <c r="R7">
-        <v>3.536976633150417</v>
+        <v>15.278534629353</v>
       </c>
       <c r="S7">
-        <v>0.0001580176379190582</v>
+        <v>0.0001512490167414842</v>
       </c>
       <c r="T7">
-        <v>0.0001580176379190582</v>
+        <v>7.584431868228277E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.1604421037977</v>
+        <v>1.293588333333333</v>
       </c>
       <c r="H8">
-        <v>1.1604421037977</v>
+        <v>3.880765</v>
       </c>
       <c r="I8">
-        <v>0.01947528401958087</v>
+        <v>0.02004071366984202</v>
       </c>
       <c r="J8">
-        <v>0.01947528401958087</v>
+        <v>0.02016477693615898</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N8">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O8">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P8">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q8">
-        <v>122.8406381386721</v>
+        <v>139.2717119802633</v>
       </c>
       <c r="R8">
-        <v>122.8406381386721</v>
+        <v>835.63027188158</v>
       </c>
       <c r="S8">
-        <v>0.005488016883462756</v>
+        <v>0.005514850738747851</v>
       </c>
       <c r="T8">
-        <v>0.005488016883462756</v>
+        <v>0.004148160159246436</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.1604421037977</v>
+        <v>1.293588333333333</v>
       </c>
       <c r="H9">
-        <v>1.1604421037977</v>
+        <v>3.880765</v>
       </c>
       <c r="I9">
-        <v>0.01947528401958087</v>
+        <v>0.02004071366984202</v>
       </c>
       <c r="J9">
-        <v>0.01947528401958087</v>
+        <v>0.02016477693615898</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N9">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O9">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P9">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q9">
-        <v>29.78741279104438</v>
+        <v>35.45949067491445</v>
       </c>
       <c r="R9">
-        <v>29.78741279104438</v>
+        <v>319.1354160742301</v>
       </c>
       <c r="S9">
-        <v>0.001330779673477306</v>
+        <v>0.001404117143127292</v>
       </c>
       <c r="T9">
-        <v>0.001330779673477306</v>
+        <v>0.001584223146180204</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.1604421037977</v>
+        <v>1.293588333333333</v>
       </c>
       <c r="H10">
-        <v>1.1604421037977</v>
+        <v>3.880765</v>
       </c>
       <c r="I10">
-        <v>0.01947528401958087</v>
+        <v>0.02004071366984202</v>
       </c>
       <c r="J10">
-        <v>0.01947528401958087</v>
+        <v>0.02016477693615898</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N10">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O10">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P10">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q10">
-        <v>87.95464909212545</v>
+        <v>106.4673997547183</v>
       </c>
       <c r="R10">
-        <v>87.95464909212545</v>
+        <v>958.206597792465</v>
       </c>
       <c r="S10">
-        <v>0.003929453693098866</v>
+        <v>0.004215872770150757</v>
       </c>
       <c r="T10">
-        <v>0.003929453693098866</v>
+        <v>0.004756642461431865</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.1604421037977</v>
+        <v>1.293588333333333</v>
       </c>
       <c r="H11">
-        <v>1.1604421037977</v>
+        <v>3.880765</v>
       </c>
       <c r="I11">
-        <v>0.01947528401958087</v>
+        <v>0.02004071366984202</v>
       </c>
       <c r="J11">
-        <v>0.01947528401958087</v>
+        <v>0.02016477693615898</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N11">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O11">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P11">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q11">
-        <v>81.23010102444634</v>
+        <v>92.19718264272834</v>
       </c>
       <c r="R11">
-        <v>81.23010102444634</v>
+        <v>829.774643784555</v>
       </c>
       <c r="S11">
-        <v>0.003629028411300679</v>
+        <v>0.003650803839330815</v>
       </c>
       <c r="T11">
-        <v>0.003629028411300679</v>
+        <v>0.004119092180264836</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.1604421037977</v>
+        <v>1.293588333333333</v>
       </c>
       <c r="H12">
-        <v>1.1604421037977</v>
+        <v>3.880765</v>
       </c>
       <c r="I12">
-        <v>0.01947528401958087</v>
+        <v>0.02004071366984202</v>
       </c>
       <c r="J12">
-        <v>0.01947528401958087</v>
+        <v>0.02016477693615898</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N12">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O12">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P12">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q12">
-        <v>92.02086814587008</v>
+        <v>107.6998345619856</v>
       </c>
       <c r="R12">
-        <v>92.02086814587008</v>
+        <v>969.2985110578701</v>
       </c>
       <c r="S12">
-        <v>0.004111115716000579</v>
+        <v>0.004264674453641798</v>
       </c>
       <c r="T12">
-        <v>0.004111115716000579</v>
+        <v>0.004811703933288034</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.1604421037977</v>
+        <v>1.293588333333333</v>
       </c>
       <c r="H13">
-        <v>1.1604421037977</v>
+        <v>3.880765</v>
       </c>
       <c r="I13">
-        <v>0.01947528401958087</v>
+        <v>0.02004071366984202</v>
       </c>
       <c r="J13">
-        <v>0.01947528401958087</v>
+        <v>0.02016477693615898</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N13">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O13">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P13">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q13">
-        <v>22.08997457544253</v>
+        <v>25.0113693732525</v>
       </c>
       <c r="R13">
-        <v>22.08997457544253</v>
+        <v>150.068216239515</v>
       </c>
       <c r="S13">
-        <v>0.0009868896422406852</v>
+        <v>0.0009903947248435061</v>
       </c>
       <c r="T13">
-        <v>0.0009868896422406852</v>
+        <v>0.0007449550557476127</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.3831437151693</v>
+        <v>39.745772</v>
       </c>
       <c r="H14">
-        <v>35.3831437151693</v>
+        <v>119.237316</v>
       </c>
       <c r="I14">
-        <v>0.5938226225189605</v>
+        <v>0.6157551175390606</v>
       </c>
       <c r="J14">
-        <v>0.5938226225189605</v>
+        <v>0.6195669873353065</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N14">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O14">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P14">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q14">
-        <v>3745.544856653586</v>
+        <v>4279.152468972392</v>
       </c>
       <c r="R14">
-        <v>3745.544856653586</v>
+        <v>25674.91481383435</v>
       </c>
       <c r="S14">
-        <v>0.1673356124043998</v>
+        <v>0.1694449419712121</v>
       </c>
       <c r="T14">
-        <v>0.1673356124043998</v>
+        <v>0.1274530881737692</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.3831437151693</v>
+        <v>39.745772</v>
       </c>
       <c r="H15">
-        <v>35.3831437151693</v>
+        <v>119.237316</v>
       </c>
       <c r="I15">
-        <v>0.5938226225189605</v>
+        <v>0.6157551175390606</v>
       </c>
       <c r="J15">
-        <v>0.5938226225189605</v>
+        <v>0.6195669873353065</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N15">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O15">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P15">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q15">
-        <v>908.2506608811692</v>
+        <v>1089.500264716835</v>
       </c>
       <c r="R15">
-        <v>908.2506608811692</v>
+        <v>9805.502382451514</v>
       </c>
       <c r="S15">
-        <v>0.04057692174885297</v>
+        <v>0.04314179278984587</v>
       </c>
       <c r="T15">
-        <v>0.04057692174885297</v>
+        <v>0.04867558738949748</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.3831437151693</v>
+        <v>39.745772</v>
       </c>
       <c r="H16">
-        <v>35.3831437151693</v>
+        <v>119.237316</v>
       </c>
       <c r="I16">
-        <v>0.5938226225189605</v>
+        <v>0.6157551175390606</v>
       </c>
       <c r="J16">
-        <v>0.5938226225189605</v>
+        <v>0.6195669873353065</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N16">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O16">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P16">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q16">
-        <v>2681.833052298914</v>
+        <v>3271.233117246644</v>
       </c>
       <c r="R16">
-        <v>2681.833052298914</v>
+        <v>29441.0980552198</v>
       </c>
       <c r="S16">
-        <v>0.1198133231205632</v>
+        <v>0.1295335723008894</v>
       </c>
       <c r="T16">
-        <v>0.1198133231205632</v>
+        <v>0.1461488341274901</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.3831437151693</v>
+        <v>39.745772</v>
       </c>
       <c r="H17">
-        <v>35.3831437151693</v>
+        <v>119.237316</v>
       </c>
       <c r="I17">
-        <v>0.5938226225189605</v>
+        <v>0.6157551175390606</v>
       </c>
       <c r="J17">
-        <v>0.5938226225189605</v>
+        <v>0.6195669873353065</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N17">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O17">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P17">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q17">
-        <v>2476.79425724005</v>
+        <v>2832.777712920188</v>
       </c>
       <c r="R17">
-        <v>2476.79425724005</v>
+        <v>25494.99941628169</v>
       </c>
       <c r="S17">
-        <v>0.1106530290509603</v>
+        <v>0.1121717112590692</v>
       </c>
       <c r="T17">
-        <v>0.1106530290509603</v>
+        <v>0.1265599684421415</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>35.3831437151693</v>
+        <v>39.745772</v>
       </c>
       <c r="H18">
-        <v>35.3831437151693</v>
+        <v>119.237316</v>
       </c>
       <c r="I18">
-        <v>0.5938226225189605</v>
+        <v>0.6157551175390606</v>
       </c>
       <c r="J18">
-        <v>0.5938226225189605</v>
+        <v>0.6195669873353065</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N18">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O18">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P18">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q18">
-        <v>2805.816500232382</v>
+        <v>3309.099934372526</v>
       </c>
       <c r="R18">
-        <v>2805.816500232382</v>
+        <v>29781.89940935273</v>
       </c>
       <c r="S18">
-        <v>0.1253523960677476</v>
+        <v>0.1310330142294147</v>
       </c>
       <c r="T18">
-        <v>0.1253523960677476</v>
+        <v>0.1478406093623057</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>35.3831437151693</v>
+        <v>39.745772</v>
       </c>
       <c r="H19">
-        <v>35.3831437151693</v>
+        <v>119.237316</v>
       </c>
       <c r="I19">
-        <v>0.5938226225189605</v>
+        <v>0.6157551175390606</v>
       </c>
       <c r="J19">
-        <v>0.5938226225189605</v>
+        <v>0.6195669873353065</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N19">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O19">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P19">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q19">
-        <v>673.5473855260748</v>
+        <v>768.4795532713862</v>
       </c>
       <c r="R19">
-        <v>673.5473855260748</v>
+        <v>4610.877319628317</v>
       </c>
       <c r="S19">
-        <v>0.03009134012643655</v>
+        <v>0.03043008498862936</v>
       </c>
       <c r="T19">
-        <v>0.03009134012643655</v>
+        <v>0.02288889984010259</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.7610796840808</v>
+        <v>22.079986</v>
       </c>
       <c r="H20">
-        <v>21.7610796840808</v>
+        <v>66.239958</v>
       </c>
       <c r="I20">
-        <v>0.3652084029295842</v>
+        <v>0.3420707081671684</v>
       </c>
       <c r="J20">
-        <v>0.3652084029295842</v>
+        <v>0.3441883178524182</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N20">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O20">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P20">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q20">
-        <v>2303.557330633523</v>
+        <v>2377.199431596796</v>
       </c>
       <c r="R20">
-        <v>2303.557330633523</v>
+        <v>14263.19658958078</v>
       </c>
       <c r="S20">
-        <v>0.1029135122879282</v>
+        <v>0.09413182228527794</v>
       </c>
       <c r="T20">
-        <v>0.1029135122879282</v>
+        <v>0.07080406948778326</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>21.7610796840808</v>
+        <v>22.079986</v>
       </c>
       <c r="H21">
-        <v>21.7610796840808</v>
+        <v>66.239958</v>
       </c>
       <c r="I21">
-        <v>0.3652084029295842</v>
+        <v>0.3420707081671684</v>
       </c>
       <c r="J21">
-        <v>0.3652084029295842</v>
+        <v>0.3441883178524182</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N21">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O21">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P21">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q21">
-        <v>558.5856125068057</v>
+        <v>605.2505557558175</v>
       </c>
       <c r="R21">
-        <v>558.5856125068057</v>
+        <v>5447.255001802357</v>
       </c>
       <c r="S21">
-        <v>0.02495531868563014</v>
+        <v>0.0239665789059198</v>
       </c>
       <c r="T21">
-        <v>0.02495531868563014</v>
+        <v>0.02704077022587159</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>21.7610796840808</v>
+        <v>22.079986</v>
       </c>
       <c r="H22">
-        <v>21.7610796840808</v>
+        <v>66.239958</v>
       </c>
       <c r="I22">
-        <v>0.3652084029295842</v>
+        <v>0.3420707081671684</v>
       </c>
       <c r="J22">
-        <v>0.3652084029295842</v>
+        <v>0.3441883178524182</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N22">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O22">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P22">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q22">
-        <v>1649.36115400788</v>
+        <v>1817.269555905022</v>
       </c>
       <c r="R22">
-        <v>1649.36115400788</v>
+        <v>16355.4260031452</v>
       </c>
       <c r="S22">
-        <v>0.07368670496407362</v>
+        <v>0.07195984173948432</v>
       </c>
       <c r="T22">
-        <v>0.07368670496407362</v>
+        <v>0.08119012536607172</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>21.7610796840808</v>
+        <v>22.079986</v>
       </c>
       <c r="H23">
-        <v>21.7610796840808</v>
+        <v>66.239958</v>
       </c>
       <c r="I23">
-        <v>0.3652084029295842</v>
+        <v>0.3420707081671684</v>
       </c>
       <c r="J23">
-        <v>0.3652084029295842</v>
+        <v>0.3441883178524182</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N23">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O23">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P23">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q23">
-        <v>1523.259708824789</v>
+        <v>1573.694234505994</v>
       </c>
       <c r="R23">
-        <v>1523.259708824789</v>
+        <v>14163.24811055395</v>
       </c>
       <c r="S23">
-        <v>0.06805300856946013</v>
+        <v>0.06231479952625629</v>
       </c>
       <c r="T23">
-        <v>0.06805300856946013</v>
+        <v>0.07030791429495759</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>21.7610796840808</v>
+        <v>22.079986</v>
       </c>
       <c r="H24">
-        <v>21.7610796840808</v>
+        <v>66.239958</v>
       </c>
       <c r="I24">
-        <v>0.3652084029295842</v>
+        <v>0.3420707081671684</v>
       </c>
       <c r="J24">
-        <v>0.3652084029295842</v>
+        <v>0.3441883178524182</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N24">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O24">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P24">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q24">
-        <v>1725.612538331049</v>
+        <v>1838.305725286863</v>
       </c>
       <c r="R24">
-        <v>1725.612538331049</v>
+        <v>16544.75152758176</v>
       </c>
       <c r="S24">
-        <v>0.07709330469274449</v>
+        <v>0.07279282736597183</v>
       </c>
       <c r="T24">
-        <v>0.07709330469274449</v>
+        <v>0.08212995799782624</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>21.7610796840808</v>
+        <v>22.079986</v>
       </c>
       <c r="H25">
-        <v>21.7610796840808</v>
+        <v>66.239958</v>
       </c>
       <c r="I25">
-        <v>0.3652084029295842</v>
+        <v>0.3420707081671684</v>
       </c>
       <c r="J25">
-        <v>0.3652084029295842</v>
+        <v>0.3441883178524182</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N25">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O25">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P25">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q25">
-        <v>414.2401377736675</v>
+        <v>426.9137803517431</v>
       </c>
       <c r="R25">
-        <v>414.2401377736675</v>
+        <v>2561.482682110458</v>
       </c>
       <c r="S25">
-        <v>0.01850655372974766</v>
+        <v>0.01690483834425826</v>
       </c>
       <c r="T25">
-        <v>0.01850655372974766</v>
+        <v>0.01271548047990783</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.207825257904796</v>
+        <v>0.237281</v>
       </c>
       <c r="H26">
-        <v>0.207825257904796</v>
+        <v>0.711843</v>
       </c>
       <c r="I26">
-        <v>0.003487856835677293</v>
+        <v>0.003676038549327608</v>
       </c>
       <c r="J26">
-        <v>0.003487856835677293</v>
+        <v>0.003698795291280512</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N26">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O26">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P26">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q26">
-        <v>21.99970788616766</v>
+        <v>25.546404709166</v>
       </c>
       <c r="R26">
-        <v>21.99970788616766</v>
+        <v>153.278428254996</v>
       </c>
       <c r="S26">
-        <v>0.0009828568960561896</v>
+        <v>0.001011580936857163</v>
       </c>
       <c r="T26">
-        <v>0.0009828568960561896</v>
+        <v>0.0007608908996650042</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.207825257904796</v>
+        <v>0.237281</v>
       </c>
       <c r="H27">
-        <v>0.207825257904796</v>
+        <v>0.711843</v>
       </c>
       <c r="I27">
-        <v>0.003487856835677293</v>
+        <v>0.003676038549327608</v>
       </c>
       <c r="J27">
-        <v>0.003487856835677293</v>
+        <v>0.003698795291280512</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N27">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O27">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P27">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q27">
-        <v>5.334670920122544</v>
+        <v>6.504282073380667</v>
       </c>
       <c r="R27">
-        <v>5.334670920122544</v>
+        <v>58.53853866042601</v>
       </c>
       <c r="S27">
-        <v>0.0002383312600859369</v>
+        <v>0.0002575551365555918</v>
       </c>
       <c r="T27">
-        <v>0.0002383312600859369</v>
+        <v>0.0002905917150475111</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.207825257904796</v>
+        <v>0.237281</v>
       </c>
       <c r="H28">
-        <v>0.207825257904796</v>
+        <v>0.711843</v>
       </c>
       <c r="I28">
-        <v>0.003487856835677293</v>
+        <v>0.003676038549327608</v>
       </c>
       <c r="J28">
-        <v>0.003487856835677293</v>
+        <v>0.003698795291280512</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N28">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O28">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P28">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q28">
-        <v>15.75192555636831</v>
+        <v>19.529158102487</v>
       </c>
       <c r="R28">
-        <v>15.75192555636831</v>
+        <v>175.762422922383</v>
       </c>
       <c r="S28">
-        <v>0.0007037315558619114</v>
+        <v>0.0007733113240101954</v>
       </c>
       <c r="T28">
-        <v>0.0007037315558619114</v>
+        <v>0.0008725039108714499</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.207825257904796</v>
+        <v>0.237281</v>
       </c>
       <c r="H29">
-        <v>0.207825257904796</v>
+        <v>0.711843</v>
       </c>
       <c r="I29">
-        <v>0.003487856835677293</v>
+        <v>0.003676038549327608</v>
       </c>
       <c r="J29">
-        <v>0.003487856835677293</v>
+        <v>0.003698795291280512</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N29">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O29">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P29">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q29">
-        <v>14.54761649873847</v>
+        <v>16.911593225549</v>
       </c>
       <c r="R29">
-        <v>14.54761649873847</v>
+        <v>152.204339029941</v>
       </c>
       <c r="S29">
-        <v>0.0006499279568141868</v>
+        <v>0.0006696615634805936</v>
       </c>
       <c r="T29">
-        <v>0.0006499279568141868</v>
+        <v>0.0007555590031543422</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.207825257904796</v>
+        <v>0.237281</v>
       </c>
       <c r="H30">
-        <v>0.207825257904796</v>
+        <v>0.711843</v>
       </c>
       <c r="I30">
-        <v>0.003487856835677293</v>
+        <v>0.003676038549327608</v>
       </c>
       <c r="J30">
-        <v>0.003487856835677293</v>
+        <v>0.003698795291280512</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N30">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O30">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P30">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q30">
-        <v>16.48015061884777</v>
+        <v>19.75522180139933</v>
       </c>
       <c r="R30">
-        <v>16.48015061884777</v>
+        <v>177.796996212594</v>
       </c>
       <c r="S30">
-        <v>0.0007362656707802694</v>
+        <v>0.0007822629448327169</v>
       </c>
       <c r="T30">
-        <v>0.0007362656707802694</v>
+        <v>0.000882603755440887</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.207825257904796</v>
+        <v>0.237281</v>
       </c>
       <c r="H31">
-        <v>0.207825257904796</v>
+        <v>0.711843</v>
       </c>
       <c r="I31">
-        <v>0.003487856835677293</v>
+        <v>0.003676038549327608</v>
       </c>
       <c r="J31">
-        <v>0.003487856835677293</v>
+        <v>0.003698795291280512</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N31">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O31">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P31">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q31">
-        <v>3.956125556137227</v>
+        <v>4.5877985935155</v>
       </c>
       <c r="R31">
-        <v>3.956125556137227</v>
+        <v>27.526791561093</v>
       </c>
       <c r="S31">
-        <v>0.0001767434960787992</v>
+        <v>0.0001816666435913476</v>
       </c>
       <c r="T31">
-        <v>0.0001767434960787992</v>
+        <v>0.0001366460071013184</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.887078047717336</v>
+        <v>0.9938385</v>
       </c>
       <c r="H32">
-        <v>0.887078047717336</v>
+        <v>1.987677</v>
       </c>
       <c r="I32">
-        <v>0.01488751301791974</v>
+        <v>0.01539688655141341</v>
       </c>
       <c r="J32">
-        <v>0.01488751301791974</v>
+        <v>0.0103281346142149</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>105.856757296775</v>
+        <v>107.663086</v>
       </c>
       <c r="N32">
-        <v>105.856757296775</v>
+        <v>215.326172</v>
       </c>
       <c r="O32">
-        <v>0.2817939331690868</v>
+        <v>0.2751823527645522</v>
       </c>
       <c r="P32">
-        <v>0.2817939331690868</v>
+        <v>0.2057131686791961</v>
       </c>
       <c r="Q32">
-        <v>93.90320560051103</v>
+        <v>106.999719895611</v>
       </c>
       <c r="R32">
-        <v>93.90320560051103</v>
+        <v>427.998879582444</v>
       </c>
       <c r="S32">
-        <v>0.004195210848425585</v>
+        <v>0.004236951466466835</v>
       </c>
       <c r="T32">
-        <v>0.004195210848425585</v>
+        <v>0.002124633298035433</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.887078047717336</v>
+        <v>0.9938385</v>
       </c>
       <c r="H33">
-        <v>0.887078047717336</v>
+        <v>1.987677</v>
       </c>
       <c r="I33">
-        <v>0.01488751301791974</v>
+        <v>0.01539688655141341</v>
       </c>
       <c r="J33">
-        <v>0.01488751301791974</v>
+        <v>0.0103281346142149</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>25.6690210511676</v>
+        <v>27.41172733333334</v>
       </c>
       <c r="N33">
-        <v>25.6690210511676</v>
+        <v>82.23518200000001</v>
       </c>
       <c r="O33">
-        <v>0.06833172097204393</v>
+        <v>0.07006323059444025</v>
       </c>
       <c r="P33">
-        <v>0.06833172097204393</v>
+        <v>0.07856388152449204</v>
       </c>
       <c r="Q33">
-        <v>22.77042508088496</v>
+        <v>27.242829975369</v>
       </c>
       <c r="R33">
-        <v>22.77042508088496</v>
+        <v>163.456979852214</v>
       </c>
       <c r="S33">
-        <v>0.001017289385508163</v>
+        <v>0.001078755612888114</v>
       </c>
       <c r="T33">
-        <v>0.001017289385508163</v>
+        <v>0.0008114183442001844</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.887078047717336</v>
+        <v>0.9938385</v>
       </c>
       <c r="H34">
-        <v>0.887078047717336</v>
+        <v>1.987677</v>
       </c>
       <c r="I34">
-        <v>0.01488751301791974</v>
+        <v>0.01539688655141341</v>
       </c>
       <c r="J34">
-        <v>0.01488751301791974</v>
+        <v>0.0103281346142149</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>75.79408641265449</v>
+        <v>82.303927</v>
       </c>
       <c r="N34">
-        <v>75.79408641265449</v>
+        <v>246.911781</v>
       </c>
       <c r="O34">
-        <v>0.2017661816458291</v>
+        <v>0.2103654011331419</v>
       </c>
       <c r="P34">
-        <v>0.2017661816458291</v>
+        <v>0.2358886724356653</v>
       </c>
       <c r="Q34">
-        <v>67.23527020345661</v>
+        <v>81.79681135378949</v>
       </c>
       <c r="R34">
-        <v>67.23527020345661</v>
+        <v>490.7808681227369</v>
       </c>
       <c r="S34">
-        <v>0.00300379665582824</v>
+        <v>0.00323897221558956</v>
       </c>
       <c r="T34">
-        <v>0.00300379665582824</v>
+        <v>0.002436289962883994</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.887078047717336</v>
+        <v>0.9938385</v>
       </c>
       <c r="H35">
-        <v>0.887078047717336</v>
+        <v>1.987677</v>
       </c>
       <c r="I35">
-        <v>0.01488751301791974</v>
+        <v>0.01539688655141341</v>
       </c>
       <c r="J35">
-        <v>0.01488751301791974</v>
+        <v>0.0103281346142149</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>69.99927075948909</v>
+        <v>71.272429</v>
       </c>
       <c r="N35">
-        <v>69.99927075948909</v>
+        <v>213.817287</v>
       </c>
       <c r="O35">
-        <v>0.1863402047257424</v>
+        <v>0.1821693528222338</v>
       </c>
       <c r="P35">
-        <v>0.1863402047257424</v>
+        <v>0.2042716462128862</v>
       </c>
       <c r="Q35">
-        <v>62.09481644696479</v>
+        <v>70.8332839287165</v>
       </c>
       <c r="R35">
-        <v>62.09481644696479</v>
+        <v>424.999703572299</v>
       </c>
       <c r="S35">
-        <v>0.00277414222361632</v>
+        <v>0.002804840858548336</v>
       </c>
       <c r="T35">
-        <v>0.00277414222361632</v>
+        <v>0.002109745059953969</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.887078047717336</v>
+        <v>0.9938385</v>
       </c>
       <c r="H36">
-        <v>0.887078047717336</v>
+        <v>1.987677</v>
       </c>
       <c r="I36">
-        <v>0.01488751301791974</v>
+        <v>0.01539688655141341</v>
       </c>
       <c r="J36">
-        <v>0.01488751301791974</v>
+        <v>0.0103281346142149</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>79.2981121976871</v>
+        <v>83.25665266666667</v>
       </c>
       <c r="N36">
-        <v>79.2981121976871</v>
+        <v>249.769958</v>
       </c>
       <c r="O36">
-        <v>0.2110940057083211</v>
+        <v>0.2128005281598046</v>
       </c>
       <c r="P36">
-        <v>0.2110940057083211</v>
+        <v>0.2386192492246123</v>
       </c>
       <c r="Q36">
-        <v>70.34361455599455</v>
+        <v>82.743666801261</v>
       </c>
       <c r="R36">
-        <v>70.34361455599455</v>
+        <v>496.462000807566</v>
       </c>
       <c r="S36">
-        <v>0.003142664757987455</v>
+        <v>0.003276465590157366</v>
       </c>
       <c r="T36">
-        <v>0.003142664757987455</v>
+        <v>0.002464491727534689</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.887078047717336</v>
+        <v>0.9938385</v>
       </c>
       <c r="H37">
-        <v>0.887078047717336</v>
+        <v>1.987677</v>
       </c>
       <c r="I37">
-        <v>0.01488751301791974</v>
+        <v>0.01539688655141341</v>
       </c>
       <c r="J37">
-        <v>0.01488751301791974</v>
+        <v>0.0103281346142149</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.0358265209011</v>
+        <v>19.3348755</v>
       </c>
       <c r="N37">
-        <v>19.0358265209011</v>
+        <v>38.66975100000001</v>
       </c>
       <c r="O37">
-        <v>0.05067395377897673</v>
+        <v>0.04941913452582716</v>
       </c>
       <c r="P37">
-        <v>0.05067395377897673</v>
+        <v>0.03694338192314826</v>
       </c>
       <c r="Q37">
-        <v>16.88626382684684</v>
+        <v>19.21574366460675</v>
       </c>
       <c r="R37">
-        <v>16.88626382684684</v>
+        <v>76.86297465842701</v>
       </c>
       <c r="S37">
-        <v>0.0007544091465539794</v>
+        <v>0.0007609008077631984</v>
       </c>
       <c r="T37">
-        <v>0.0007544091465539794</v>
+        <v>0.0003815562216066285</v>
       </c>
     </row>
   </sheetData>
